--- a/utilities/SIfTemplate.xlsx
+++ b/utilities/SIfTemplate.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoftapc-my.sharepoint.com/personal/jorampon_microsoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\UbuntuDev1\home\jrambo\gitms\sifmodel\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{289069B1-DDD0-4053-B653-D234364E4647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C4C5FE9-E85C-49E1-9273-4544715D8D27}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6044F4-B0F8-4319-9CAB-2A520E61D991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{00DAE5C8-10B6-42A4-BA70-6A5A5A296E17}"/>
+    <workbookView xWindow="0" yWindow="19464" windowWidth="18744" windowHeight="3240" activeTab="1" xr2:uid="{00DAE5C8-10B6-42A4-BA70-6A5A5A296E17}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="StaffPersonal" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="StudentPersonl" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="249">
   <si>
     <t>RefId</t>
   </si>
@@ -348,13 +351,469 @@
   </si>
   <si>
     <t>PersonInfo.Demographics.Passport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    , </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar(50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar(20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar(255)</t>
+  </si>
+  <si>
+    <t>EmploymentStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar(1)</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar(255) </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Name.GivenName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Name.FamilyName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar(max)  </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.OtherNames</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar(255)  </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.IndigenousStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar(10) </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.Sex</t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.BirthDate</t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.DateOfDeath</t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.Deceased</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar(50) </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.BirthDateVerification</t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.PlaceOfBirth</t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.StateOfBirth</t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.CountryOfBirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar(max) </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.CountriesOfCitizenship</t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.CountriesOfResidency</t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.CountryArrivalDate</t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.AustralianCitizenshipStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          varchar(255) </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.EnglishProficiency.Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                varchar(max) </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.LanguageList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         varchar(50)  </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.DwellingArrangement.Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    varchar(50)  </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.Religion.Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          varchar(max) </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.ReligiousEventList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             varchar(50)  </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.ReligiousRegion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           varchar(255) </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.PermanentResident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                varchar(255) </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.VisaSubClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         varchar(5)   </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.Demographics.VisaStatisticalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   varchar(max) </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.EmailList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             varchar(max) </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.PhoneNumberList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 varchar(max) </t>
+  </si>
+  <si>
+    <t>$.PersonInfo.AddressList</t>
+  </si>
+  <si>
+    <t>-----</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>000_database_serverlesspool.sql</t>
+  </si>
+  <si>
+    <t>001_external_datasource.sql</t>
+  </si>
+  <si>
+    <t>06/23/2022</t>
+  </si>
+  <si>
+    <t>001-Schemas.sql</t>
+  </si>
+  <si>
+    <t>002-Tables.sql</t>
+  </si>
+  <si>
+    <t>003-Views.sql</t>
+  </si>
+  <si>
+    <t>004-StoredProcsAndUserDefinedFuncs.sql</t>
+  </si>
+  <si>
+    <t>005-Users.sql</t>
+  </si>
+  <si>
+    <t>006-DataInsert.sql</t>
+  </si>
+  <si>
+    <t>007-ManualUpdate.sql</t>
+  </si>
+  <si>
+    <t>008-CreateMSILogins.sql</t>
+  </si>
+  <si>
+    <t>009-InsertSIFTaskMasters.sql</t>
+  </si>
+  <si>
+    <t>300_dm_dimSexCode.sql</t>
+  </si>
+  <si>
+    <t>300_dm_dimStaffStatus.sql</t>
+  </si>
+  <si>
+    <t>311_vw_CalendarDate.sql</t>
+  </si>
+  <si>
+    <t>312_dm_dimCalendarDate.sql</t>
+  </si>
+  <si>
+    <t>315_vw_StaffPersonal.sql</t>
+  </si>
+  <si>
+    <t>316_dm_dimStaff.sql</t>
+  </si>
+  <si>
+    <t>325_vw_StudentScoreJudgementAgainstStandard.sql</t>
+  </si>
+  <si>
+    <t>326_dm_factStudentScoreJudgementAgainstStandard.sql</t>
+  </si>
+  <si>
+    <t>331_vw_GradingAssignmentScore.sql</t>
+  </si>
+  <si>
+    <t>332_dm_factGradingAssignmentScore.sql</t>
+  </si>
+  <si>
+    <t>335_vw_TeachingGroup.sql</t>
+  </si>
+  <si>
+    <t>336_vw_TeachingGroup_LocalCode.sql</t>
+  </si>
+  <si>
+    <t>337_vw_TeachingGroup_Period.sql</t>
+  </si>
+  <si>
+    <t>338_vw_TeachingGroup_Student.sql</t>
+  </si>
+  <si>
+    <t>339_vw_TeachingGroup_Teacher.sql</t>
+  </si>
+  <si>
+    <t>340_dm_factTeachingGroup.sql</t>
+  </si>
+  <si>
+    <t>341_vw_LearningStandardItem.sql</t>
+  </si>
+  <si>
+    <t>342_dm_dimLearningStandardItem.sql</t>
+  </si>
+  <si>
+    <t>351_vw_GradingAssignment.sql</t>
+  </si>
+  <si>
+    <t>352_dm_dimGradingInfo.sql</t>
+  </si>
+  <si>
+    <t>360_vw_MarkValueInfo_ValidLetterMark.sql</t>
+  </si>
+  <si>
+    <t>362_dm_dimMarkValueInfo.sql</t>
+  </si>
+  <si>
+    <t>365_vw_SchoolInfo.sql</t>
+  </si>
+  <si>
+    <t>366_dm_dimSchoolInfo.sql</t>
+  </si>
+  <si>
+    <t>368_vw_SectionInfo.sql</t>
+  </si>
+  <si>
+    <t>369_dm_dimSectionInfo.sql</t>
+  </si>
+  <si>
+    <t>375_vw_StudentDailyAttendance.sql</t>
+  </si>
+  <si>
+    <t>376_vw_StudentDailyAttendance_OtherCode.sql</t>
+  </si>
+  <si>
+    <t>377_dm_dimStudentAttendance.sql</t>
+  </si>
+  <si>
+    <t>381_vw_StudentGrade.sql</t>
+  </si>
+  <si>
+    <t>382_dm_factStudentGrade.sql</t>
+  </si>
+  <si>
+    <t>385_vw_StudentPersonal.sql</t>
+  </si>
+  <si>
+    <t>386_dm_dimStudent.sql</t>
+  </si>
+  <si>
+    <t>391_vw_StudentSectionEnrollment.sql</t>
+  </si>
+  <si>
+    <t>392_dm_dimStudentSectionEnrollment.sql</t>
+  </si>
+  <si>
+    <t>398_vw_TermInfo.sql</t>
+  </si>
+  <si>
+    <t>399_dm_dimTermInfo.sql</t>
+  </si>
+  <si>
+    <t>vw_TeachingGroup_OLD.sql</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>dm</t>
+  </si>
+  <si>
+    <t>dimSexCode.sql</t>
+  </si>
+  <si>
+    <t>dimStaffStatus.sql</t>
+  </si>
+  <si>
+    <t>dimCalendarDate.sql</t>
+  </si>
+  <si>
+    <t>dimStaff.sql</t>
+  </si>
+  <si>
+    <t>factStudentScoreJudgementAgainstStandard.sql</t>
+  </si>
+  <si>
+    <t>factGradingAssignmentScore.sql</t>
+  </si>
+  <si>
+    <t>factTeachingGroup.sql</t>
+  </si>
+  <si>
+    <t>dimLearningStandardItem.sql</t>
+  </si>
+  <si>
+    <t>dimGradingInfo.sql</t>
+  </si>
+  <si>
+    <t>dimMarkValueInfo.sql</t>
+  </si>
+  <si>
+    <t>dimSchoolInfo.sql</t>
+  </si>
+  <si>
+    <t>dimSectionInfo.sql</t>
+  </si>
+  <si>
+    <t>dimStudentAttendance.sql</t>
+  </si>
+  <si>
+    <t>factStudentGrade.sql</t>
+  </si>
+  <si>
+    <t>dimStudent.sql</t>
+  </si>
+  <si>
+    <t>dimStudentSectionEnrollment.sql</t>
+  </si>
+  <si>
+    <t>dimTermInfo.sql</t>
+  </si>
+  <si>
+    <t>vw</t>
+  </si>
+  <si>
+    <t>TeachingGroup</t>
+  </si>
+  <si>
+    <t>MarkValueInfo</t>
+  </si>
+  <si>
+    <t>StudentDailyAttendance</t>
+  </si>
+  <si>
+    <t>CalendarDate</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>StaffPersonal</t>
+  </si>
+  <si>
+    <t>StudentScoreJudgementAgainstStandard</t>
+  </si>
+  <si>
+    <t>GradingAssignmentScore</t>
+  </si>
+  <si>
+    <t>LearningStandardItem</t>
+  </si>
+  <si>
+    <t>GradingAssignment</t>
+  </si>
+  <si>
+    <t>SchoolInfo</t>
+  </si>
+  <si>
+    <t>SectionInfo</t>
+  </si>
+  <si>
+    <t>StudentGrade</t>
+  </si>
+  <si>
+    <t>StudentPersonal</t>
+  </si>
+  <si>
+    <t>StudentSectionEnrollment</t>
+  </si>
+  <si>
+    <t>TermInfo</t>
+  </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">growth </t>
+  </si>
+  <si>
+    <t>Quota</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,16 +827,47 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFA31515"/>
+      <name val="CaskaydiaCove NF"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFEEEEEE"/>
+      <name val="CaskaydiaCove NF"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2C001E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -385,20 +875,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFEEEEEE"/>
+        <name val="CaskaydiaCove NF"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF2C001E"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -409,6 +960,47 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15769870-70D0-44EC-9989-6198EDBE9ECE}" name="Table1" displayName="Table1" ref="A1:F50" totalsRowShown="0">
+  <autoFilter ref="A1:F50" xr:uid="{15769870-70D0-44EC-9989-6198EDBE9ECE}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="311_vw_CalendarDate.sql"/>
+        <filter val="315_vw_StaffPersonal.sql"/>
+        <filter val="325_vw_StudentScoreJudgementAgainstStandard.sql"/>
+        <filter val="331_vw_GradingAssignmentScore.sql"/>
+        <filter val="335_vw_TeachingGroup.sql"/>
+        <filter val="336_vw_TeachingGroup_LocalCode.sql"/>
+        <filter val="337_vw_TeachingGroup_Period.sql"/>
+        <filter val="338_vw_TeachingGroup_Student.sql"/>
+        <filter val="339_vw_TeachingGroup_Teacher.sql"/>
+        <filter val="341_vw_LearningStandardItem.sql"/>
+        <filter val="351_vw_GradingAssignment.sql"/>
+        <filter val="360_vw_MarkValueInfo_ValidLetterMark.sql"/>
+        <filter val="365_vw_SchoolInfo.sql"/>
+        <filter val="368_vw_SectionInfo.sql"/>
+        <filter val="375_vw_StudentDailyAttendance.sql"/>
+        <filter val="376_vw_StudentDailyAttendance_OtherCode.sql"/>
+        <filter val="381_vw_StudentGrade.sql"/>
+        <filter val="385_vw_StudentPersonal.sql"/>
+        <filter val="391_vw_StudentSectionEnrollment.sql"/>
+        <filter val="398_vw_TermInfo.sql"/>
+        <filter val="vw_TeachingGroup_OLD.sql"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{FC9D8AD9-49B2-487B-AD55-AD6BDF441130}" name="Column1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{1235035D-516B-4DA3-AD5E-00E61F99DF74}" name="Column2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5A8C6276-C53A-4592-9C25-0470DEF4A2EB}" name="Column3" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{E670169A-EFF7-4D53-885B-625E1121D259}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{251DCBDD-B7D8-47B2-A892-0F057D0243AC}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{3D3C419A-B5EE-4E8C-9875-EBC0AF1EB88D}" name="Column6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -707,11 +1299,2822 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A8E19A-B70A-4320-B0FA-BF90F5ED098B}">
+  <dimension ref="A1:CF67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="21" max="21" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="str">
+        <f>A1</f>
+        <v>RefId</v>
+      </c>
+      <c r="M1" t="str">
+        <f>"'"&amp;A1&amp;"',"</f>
+        <v>'RefId',</v>
+      </c>
+      <c r="R1" t="str" cm="1">
+        <f t="array" ref="R1:CF1">TRANSPOSE(M1:M67)</f>
+        <v>'RefId',</v>
+      </c>
+      <c r="S1" t="str">
+        <v>'LocalId',</v>
+      </c>
+      <c r="T1" t="str">
+        <v>'StateProvinceId',</v>
+      </c>
+      <c r="U1" t="str">
+        <v>'FirstName',</v>
+      </c>
+      <c r="V1" t="str">
+        <v>'LastName',</v>
+      </c>
+      <c r="W1" t="str">
+        <v>'MiddleName',</v>
+      </c>
+      <c r="X1" t="str">
+        <v>'OtherNames',</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>'EmploymentStatus',</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>'Title',</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>'IndigenousStatus',</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>'Sex',</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>'BirthDate',</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>'DateOfDeath',</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>'Deceased',</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>'BirthDateVerification',</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>'PlaceOfBirth',</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>'StateOfBirth',</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>'CountryOfBirth ',</v>
+      </c>
+      <c r="AJ1" t="str">
+        <v>'CountryOfCitizenship ',</v>
+      </c>
+      <c r="AK1" t="str">
+        <v>'CountryOfResidency',</v>
+      </c>
+      <c r="AL1" t="str">
+        <v>'CountryArrivalDate',</v>
+      </c>
+      <c r="AM1" t="str">
+        <v>'AustralianCitizenshipStatus',</v>
+      </c>
+      <c r="AN1" t="str">
+        <v>'EnglishProficiency',</v>
+      </c>
+      <c r="AO1" t="str">
+        <v>'LanguageList',</v>
+      </c>
+      <c r="AP1" t="str">
+        <v>'DwellingArrangement',</v>
+      </c>
+      <c r="AQ1" t="str">
+        <v>'Religion',</v>
+      </c>
+      <c r="AR1" t="str">
+        <v>'ReligiousEventList',</v>
+      </c>
+      <c r="AS1" t="str">
+        <v>'ReligiousRegion',</v>
+      </c>
+      <c r="AT1" t="str">
+        <v>'PermanentResident',</v>
+      </c>
+      <c r="AU1" t="str">
+        <v>'VisaSubClass',</v>
+      </c>
+      <c r="AV1" t="str">
+        <v>'VisaStatisticalCode',</v>
+      </c>
+      <c r="AW1" t="str">
+        <v>'EmailList',</v>
+      </c>
+      <c r="AX1" t="str">
+        <v>'PhoneNumberList',</v>
+      </c>
+      <c r="AY1" t="str">
+        <v>'AddressList',</v>
+      </c>
+      <c r="AZ1">
+        <v>0</v>
+      </c>
+      <c r="BA1">
+        <v>0</v>
+      </c>
+      <c r="BB1">
+        <v>0</v>
+      </c>
+      <c r="BC1">
+        <v>0</v>
+      </c>
+      <c r="BD1">
+        <v>0</v>
+      </c>
+      <c r="BE1">
+        <v>0</v>
+      </c>
+      <c r="BF1">
+        <v>0</v>
+      </c>
+      <c r="BG1">
+        <v>0</v>
+      </c>
+      <c r="BH1">
+        <v>0</v>
+      </c>
+      <c r="BI1">
+        <v>0</v>
+      </c>
+      <c r="BJ1">
+        <v>0</v>
+      </c>
+      <c r="BK1">
+        <v>0</v>
+      </c>
+      <c r="BL1">
+        <v>0</v>
+      </c>
+      <c r="BM1">
+        <v>0</v>
+      </c>
+      <c r="BN1">
+        <v>0</v>
+      </c>
+      <c r="BO1">
+        <v>0</v>
+      </c>
+      <c r="BP1">
+        <v>0</v>
+      </c>
+      <c r="BQ1">
+        <v>0</v>
+      </c>
+      <c r="BR1">
+        <v>0</v>
+      </c>
+      <c r="BS1">
+        <v>0</v>
+      </c>
+      <c r="BT1">
+        <v>0</v>
+      </c>
+      <c r="BU1">
+        <v>0</v>
+      </c>
+      <c r="BV1">
+        <v>0</v>
+      </c>
+      <c r="BW1">
+        <v>0</v>
+      </c>
+      <c r="BX1">
+        <v>0</v>
+      </c>
+      <c r="BY1">
+        <v>0</v>
+      </c>
+      <c r="BZ1">
+        <v>0</v>
+      </c>
+      <c r="CA1">
+        <v>0</v>
+      </c>
+      <c r="CB1">
+        <v>0</v>
+      </c>
+      <c r="CC1">
+        <v>0</v>
+      </c>
+      <c r="CD1">
+        <v>0</v>
+      </c>
+      <c r="CE1">
+        <v>0</v>
+      </c>
+      <c r="CF1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B3" si="0">A2</f>
+        <v>LocalId</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>".withColumn('"&amp;A2&amp;"',get_json_object(col('json'), '$."&amp;A2&amp;"')) \"</f>
+        <v>.withColumn('LocalId',get_json_object(col('json'), '$.LocalId')) \</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M65" si="1">"'"&amp;A2&amp;"',"</f>
+        <v>'LocalId',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>StateProvinceId</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>".withColumn('"&amp;A3&amp;"',get_json_object(col('json'), '$."&amp;A3&amp;"')) \"</f>
+        <v>.withColumn('StateProvinceId',get_json_object(col('json'), '$.StateProvinceId')) \</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="1"/>
+        <v>'StateProvinceId',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" ref="C4:C34" si="2">".withColumn('"&amp;A4&amp;"',get_json_object(col('json'), '$."&amp;A4&amp;"')) \"</f>
+        <v>.withColumn('FirstName',get_json_object(col('json'), '$.FirstName')) \</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v>'FirstName',</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('LastName',get_json_object(col('json'), '$.LastName')) \</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>'LastName',</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" ref="B6" si="3">A6</f>
+        <v>MiddleName</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('MiddleName',get_json_object(col('json'), '$.MiddleName')) \</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>'MiddleName',</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('OtherNames',get_json_object(col('json'), '$.OtherNames')) \</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>'OtherNames',</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" ref="B8:B9" si="4">A8</f>
+        <v>EmploymentStatus</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('EmploymentStatus',get_json_object(col('json'), '$.EmploymentStatus')) \</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>'EmploymentStatus',</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" t="s">
+        <v>104</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="4"/>
+        <v>Title</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('Title',get_json_object(col('json'), '$.Title')) \</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Title',</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('IndigenousStatus',get_json_object(col('json'), '$.IndigenousStatus')) \</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>'IndigenousStatus',</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" t="s">
+        <v>108</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('Sex',get_json_object(col('json'), '$.Sex')) \</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>'Sex',</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11" t="s">
+        <v>101</v>
+      </c>
+      <c r="U11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('BirthDate',get_json_object(col('json'), '$.BirthDate')) \</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>'BirthDate',</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T12" t="s">
+        <v>103</v>
+      </c>
+      <c r="U12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('DateOfDeath',get_json_object(col('json'), '$.DateOfDeath')) \</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>'DateOfDeath',</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" t="s">
+        <v>110</v>
+      </c>
+      <c r="W13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('Deceased',get_json_object(col('json'), '$.Deceased')) \</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>'Deceased',</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14" t="s">
+        <v>35</v>
+      </c>
+      <c r="U14" t="s">
+        <v>112</v>
+      </c>
+      <c r="W14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('BirthDateVerification',get_json_object(col('json'), '$.BirthDateVerification')) \</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>'BirthDateVerification',</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" t="s">
+        <v>104</v>
+      </c>
+      <c r="W15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('PlaceOfBirth',get_json_object(col('json'), '$.PlaceOfBirth')) \</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>'PlaceOfBirth',</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T16" t="s">
+        <v>37</v>
+      </c>
+      <c r="U16" t="s">
+        <v>104</v>
+      </c>
+      <c r="W16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('StateOfBirth',get_json_object(col('json'), '$.StateOfBirth')) \</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>'StateOfBirth',</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" t="s">
+        <v>104</v>
+      </c>
+      <c r="W17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('CountryOfBirth ',get_json_object(col('json'), '$.CountryOfBirth ')) \</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>'CountryOfBirth ',</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T18" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" t="s">
+        <v>117</v>
+      </c>
+      <c r="W18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('CountryOfCitizenship ',get_json_object(col('json'), '$.CountryOfCitizenship ')) \</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>'CountryOfCitizenship ',</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T19" t="s">
+        <v>40</v>
+      </c>
+      <c r="U19" t="s">
+        <v>117</v>
+      </c>
+      <c r="W19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('CountryOfResidency',get_json_object(col('json'), '$.CountryOfResidency')) \</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>'CountryOfResidency',</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U20" t="s">
+        <v>117</v>
+      </c>
+      <c r="W20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('CountryArrivalDate',get_json_object(col('json'), '$.CountryArrivalDate')) \</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>'CountryArrivalDate',</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T21" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21" t="s">
+        <v>117</v>
+      </c>
+      <c r="W21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('AustralianCitizenshipStatus',get_json_object(col('json'), '$.AustralianCitizenshipStatus')) \</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>'AustralianCitizenshipStatus',</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U22" t="s">
+        <v>122</v>
+      </c>
+      <c r="W22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('EnglishProficiency',get_json_object(col('json'), '$.EnglishProficiency')) \</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>'EnglishProficiency',</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U23" t="s">
+        <v>122</v>
+      </c>
+      <c r="W23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('LanguageList',get_json_object(col('json'), '$.LanguageList')) \</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>'LanguageList',</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T24" t="s">
+        <v>45</v>
+      </c>
+      <c r="U24" t="s">
+        <v>104</v>
+      </c>
+      <c r="W24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('DwellingArrangement',get_json_object(col('json'), '$.DwellingArrangement')) \</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>'DwellingArrangement',</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T25" t="s">
+        <v>46</v>
+      </c>
+      <c r="U25" t="s">
+        <v>104</v>
+      </c>
+      <c r="W25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('Religion',get_json_object(col('json'), '$.Religion')) \</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>'Religion',</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T26" t="s">
+        <v>47</v>
+      </c>
+      <c r="U26" t="s">
+        <v>127</v>
+      </c>
+      <c r="W26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('ReligiousEventList',get_json_object(col('json'), '$.ReligiousEventList')) \</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>'ReligiousEventList',</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T27" t="s">
+        <v>48</v>
+      </c>
+      <c r="U27" t="s">
+        <v>129</v>
+      </c>
+      <c r="W27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('ReligiousRegion',get_json_object(col('json'), '$.ReligiousRegion')) \</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>'ReligiousRegion',</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T28" t="s">
+        <v>49</v>
+      </c>
+      <c r="U28" t="s">
+        <v>131</v>
+      </c>
+      <c r="W28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('PermanentResident',get_json_object(col('json'), '$.PermanentResident')) \</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>'PermanentResident',</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T29" t="s">
+        <v>50</v>
+      </c>
+      <c r="U29" t="s">
+        <v>133</v>
+      </c>
+      <c r="W29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('VisaSubClass',get_json_object(col('json'), '$.VisaSubClass')) \</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>'VisaSubClass',</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U30" t="s">
+        <v>135</v>
+      </c>
+      <c r="W30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('VisaStatisticalCode',get_json_object(col('json'), '$.VisaStatisticalCode')) \</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v>'VisaStatisticalCode',</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T31" t="s">
+        <v>52</v>
+      </c>
+      <c r="U31" t="s">
+        <v>137</v>
+      </c>
+      <c r="W31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('EmailList',get_json_object(col('json'), '$.EmailList')) \</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v>'EmailList',</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T32" t="s">
+        <v>53</v>
+      </c>
+      <c r="U32" t="s">
+        <v>139</v>
+      </c>
+      <c r="W32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('PhoneNumberList',get_json_object(col('json'), '$.PhoneNumberList')) \</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v>'PhoneNumberList',</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T33" t="s">
+        <v>54</v>
+      </c>
+      <c r="U33" t="s">
+        <v>141</v>
+      </c>
+      <c r="W33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>.withColumn('AddressList',get_json_object(col('json'), '$.AddressList')) \</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v>'AddressList',</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T34" t="s">
+        <v>55</v>
+      </c>
+      <c r="U34" t="s">
+        <v>143</v>
+      </c>
+      <c r="W34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+      <c r="S35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T35" t="s">
+        <v>31</v>
+      </c>
+      <c r="U35" t="s">
+        <v>145</v>
+      </c>
+      <c r="W35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+      <c r="S36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T36" t="s">
+        <v>32</v>
+      </c>
+      <c r="U36" t="s">
+        <v>147</v>
+      </c>
+      <c r="W36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+      <c r="S37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T37" t="s">
+        <v>33</v>
+      </c>
+      <c r="U37" t="s">
+        <v>149</v>
+      </c>
+      <c r="W37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E7176A-C210-4646-8C1B-10BCDA01B998}">
+  <dimension ref="B4:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <f>(C4+C6)</f>
+        <v>160</v>
+      </c>
+      <c r="F4" s="9">
+        <f>((E4)-(C4*C5))/(C7-(C4*C5))</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="9">
+        <f>(E4)/C7</f>
+        <v>1.0666666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078696F2-B7E3-4877-B4A4-729F7C063035}">
+  <dimension ref="A1:I95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H75" sqref="H75:H94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="48.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="D2">
+        <v>787</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D3">
+        <v>166</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D5">
+        <v>56081</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D7">
+        <v>6313</v>
+      </c>
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="D11">
+        <v>991</v>
+      </c>
+      <c r="E11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D12">
+        <v>14219</v>
+      </c>
+      <c r="E12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D13">
+        <v>517</v>
+      </c>
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D14">
+        <v>650</v>
+      </c>
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D15">
+        <v>1174</v>
+      </c>
+      <c r="E15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D16">
+        <v>553</v>
+      </c>
+      <c r="E16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D17">
+        <v>2772</v>
+      </c>
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D18">
+        <v>5176</v>
+      </c>
+      <c r="E18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D19">
+        <v>1868</v>
+      </c>
+      <c r="E19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D20">
+        <v>687</v>
+      </c>
+      <c r="E20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D21">
+        <v>1405</v>
+      </c>
+      <c r="E21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D22">
+        <v>598</v>
+      </c>
+      <c r="E22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D23">
+        <v>2392</v>
+      </c>
+      <c r="E23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D24">
+        <v>657</v>
+      </c>
+      <c r="E24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D25">
+        <v>673</v>
+      </c>
+      <c r="E25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D26">
+        <v>691</v>
+      </c>
+      <c r="E26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D27">
+        <v>785</v>
+      </c>
+      <c r="E27" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D28">
+        <v>798</v>
+      </c>
+      <c r="E28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D29">
+        <v>1667</v>
+      </c>
+      <c r="E29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D30">
+        <v>479</v>
+      </c>
+      <c r="E30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D31">
+        <v>1106</v>
+      </c>
+      <c r="E31" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D32">
+        <v>491</v>
+      </c>
+      <c r="E32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D33">
+        <v>678</v>
+      </c>
+      <c r="E33" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D34">
+        <v>426</v>
+      </c>
+      <c r="E34" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D35">
+        <v>3486</v>
+      </c>
+      <c r="E35" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D36">
+        <v>1200</v>
+      </c>
+      <c r="E36" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D37">
+        <v>1698</v>
+      </c>
+      <c r="E37" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D38">
+        <v>465</v>
+      </c>
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D39">
+        <v>984</v>
+      </c>
+      <c r="E39" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D40">
+        <v>705</v>
+      </c>
+      <c r="E40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D41">
+        <v>571</v>
+      </c>
+      <c r="E41" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D42">
+        <v>1504</v>
+      </c>
+      <c r="E42" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D43">
+        <v>397</v>
+      </c>
+      <c r="E43" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D44">
+        <v>4024</v>
+      </c>
+      <c r="E44" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D45">
+        <v>9230</v>
+      </c>
+      <c r="E45" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D46">
+        <v>1476</v>
+      </c>
+      <c r="E46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D47">
+        <v>796</v>
+      </c>
+      <c r="E47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D48">
+        <v>1014</v>
+      </c>
+      <c r="E48" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D49">
+        <v>596</v>
+      </c>
+      <c r="E49" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D50">
+        <v>1332</v>
+      </c>
+      <c r="E50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F57" s="7">
+        <v>300</v>
+      </c>
+      <c r="G57" t="s">
+        <v>209</v>
+      </c>
+      <c r="H57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F58" s="8">
+        <v>300</v>
+      </c>
+      <c r="G58" t="s">
+        <v>209</v>
+      </c>
+      <c r="H58" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F59" s="7">
+        <v>312</v>
+      </c>
+      <c r="G59" t="s">
+        <v>209</v>
+      </c>
+      <c r="H59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F60" s="8">
+        <v>316</v>
+      </c>
+      <c r="G60" t="s">
+        <v>209</v>
+      </c>
+      <c r="H60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F61" s="7">
+        <v>326</v>
+      </c>
+      <c r="G61" t="s">
+        <v>209</v>
+      </c>
+      <c r="H61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F62" s="8">
+        <v>332</v>
+      </c>
+      <c r="G62" t="s">
+        <v>209</v>
+      </c>
+      <c r="H62" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F63" s="7">
+        <v>340</v>
+      </c>
+      <c r="G63" t="s">
+        <v>209</v>
+      </c>
+      <c r="H63" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F64" s="8">
+        <v>342</v>
+      </c>
+      <c r="G64" t="s">
+        <v>209</v>
+      </c>
+      <c r="H64" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F65" s="7">
+        <v>352</v>
+      </c>
+      <c r="G65" t="s">
+        <v>209</v>
+      </c>
+      <c r="H65" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F66" s="8">
+        <v>362</v>
+      </c>
+      <c r="G66" t="s">
+        <v>209</v>
+      </c>
+      <c r="H66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F67" s="7">
+        <v>366</v>
+      </c>
+      <c r="G67" t="s">
+        <v>209</v>
+      </c>
+      <c r="H67" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F68" s="8">
+        <v>369</v>
+      </c>
+      <c r="G68" t="s">
+        <v>209</v>
+      </c>
+      <c r="H68" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F69" s="7">
+        <v>377</v>
+      </c>
+      <c r="G69" t="s">
+        <v>209</v>
+      </c>
+      <c r="H69" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F70" s="8">
+        <v>382</v>
+      </c>
+      <c r="G70" t="s">
+        <v>209</v>
+      </c>
+      <c r="H70" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F71" s="7">
+        <v>386</v>
+      </c>
+      <c r="G71" t="s">
+        <v>209</v>
+      </c>
+      <c r="H71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F72" s="8">
+        <v>392</v>
+      </c>
+      <c r="G72" t="s">
+        <v>209</v>
+      </c>
+      <c r="H72" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F73" s="7">
+        <v>399</v>
+      </c>
+      <c r="G73" t="s">
+        <v>209</v>
+      </c>
+      <c r="H73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F75" s="7">
+        <v>311</v>
+      </c>
+      <c r="G75" t="s">
+        <v>227</v>
+      </c>
+      <c r="H75" t="s">
+        <v>231</v>
+      </c>
+      <c r="I75" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F76" s="8">
+        <v>315</v>
+      </c>
+      <c r="G76" t="s">
+        <v>227</v>
+      </c>
+      <c r="H76" t="s">
+        <v>233</v>
+      </c>
+      <c r="I76" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F77" s="7">
+        <v>325</v>
+      </c>
+      <c r="G77" t="s">
+        <v>227</v>
+      </c>
+      <c r="H77" t="s">
+        <v>234</v>
+      </c>
+      <c r="I77" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F78" s="8">
+        <v>331</v>
+      </c>
+      <c r="G78" t="s">
+        <v>227</v>
+      </c>
+      <c r="H78" t="s">
+        <v>235</v>
+      </c>
+      <c r="I78" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F79" s="7">
+        <v>335</v>
+      </c>
+      <c r="G79" t="s">
+        <v>227</v>
+      </c>
+      <c r="H79" t="s">
+        <v>228</v>
+      </c>
+      <c r="I79" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F80" s="8">
+        <v>336</v>
+      </c>
+      <c r="G80" t="s">
+        <v>227</v>
+      </c>
+      <c r="H80" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="81" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F81" s="7">
+        <v>337</v>
+      </c>
+      <c r="G81" t="s">
+        <v>227</v>
+      </c>
+      <c r="H81" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F82" s="8">
+        <v>338</v>
+      </c>
+      <c r="G82" t="s">
+        <v>227</v>
+      </c>
+      <c r="H82" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F83" s="7">
+        <v>339</v>
+      </c>
+      <c r="G83" t="s">
+        <v>227</v>
+      </c>
+      <c r="H83" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F84" s="8">
+        <v>341</v>
+      </c>
+      <c r="G84" t="s">
+        <v>227</v>
+      </c>
+      <c r="H84" t="s">
+        <v>236</v>
+      </c>
+      <c r="I84" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F85" s="7">
+        <v>351</v>
+      </c>
+      <c r="G85" t="s">
+        <v>227</v>
+      </c>
+      <c r="H85" t="s">
+        <v>237</v>
+      </c>
+      <c r="I85" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F86" s="8">
+        <v>360</v>
+      </c>
+      <c r="G86" t="s">
+        <v>227</v>
+      </c>
+      <c r="H86" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F87" s="7">
+        <v>365</v>
+      </c>
+      <c r="G87" t="s">
+        <v>227</v>
+      </c>
+      <c r="H87" t="s">
+        <v>238</v>
+      </c>
+      <c r="I87" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F88" s="8">
+        <v>368</v>
+      </c>
+      <c r="G88" t="s">
+        <v>227</v>
+      </c>
+      <c r="H88" t="s">
+        <v>239</v>
+      </c>
+      <c r="I88" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="89" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F89" s="7">
+        <v>375</v>
+      </c>
+      <c r="G89" t="s">
+        <v>227</v>
+      </c>
+      <c r="H89" t="s">
+        <v>230</v>
+      </c>
+      <c r="I89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F90" s="8">
+        <v>376</v>
+      </c>
+      <c r="G90" t="s">
+        <v>227</v>
+      </c>
+      <c r="H90" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F91" s="7">
+        <v>381</v>
+      </c>
+      <c r="G91" t="s">
+        <v>227</v>
+      </c>
+      <c r="H91" t="s">
+        <v>240</v>
+      </c>
+      <c r="I91" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F92" s="8">
+        <v>385</v>
+      </c>
+      <c r="G92" t="s">
+        <v>227</v>
+      </c>
+      <c r="H92" t="s">
+        <v>241</v>
+      </c>
+      <c r="I92" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="93" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F93" s="7">
+        <v>391</v>
+      </c>
+      <c r="G93" t="s">
+        <v>227</v>
+      </c>
+      <c r="H93" t="s">
+        <v>242</v>
+      </c>
+      <c r="I93" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F94" s="8">
+        <v>398</v>
+      </c>
+      <c r="G94" t="s">
+        <v>227</v>
+      </c>
+      <c r="H94" t="s">
+        <v>243</v>
+      </c>
+      <c r="I94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F95" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G95" t="s">
+        <v>228</v>
+      </c>
+      <c r="H95" t="s">
+        <v>244</v>
+      </c>
+      <c r="I95" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B970078-09B1-496E-A980-08484CCC758B}">
   <dimension ref="A1:CF67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,30 +4346,22 @@
         <f t="shared" ref="M2:M65" si="0">"'"&amp;A2&amp;"',"</f>
         <v>'LocalId',</v>
       </c>
-      <c r="Q2" t="str">
-        <f>".withColumn('"&amp;A2&amp;"',F.when(for_exist_column(df_Raw, '$."&amp;B2&amp;"'), col('$."&amp;B2&amp;"'))) \"</f>
-        <v>.withColumn('LocalId',F.when(for_exist_column(df_Raw, '$.AlertMessages'), col('$.AlertMessages'))) \</v>
-      </c>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B2:B5" si="1">A3</f>
+        <f t="shared" ref="B3:B5" si="1">A3</f>
         <v>StateProvinceId</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C4" si="2">".withColumn('"&amp;A3&amp;"',col('"&amp;B3&amp;"')) \"</f>
-        <v>.withColumn('StateProvinceId',col('StateProvinceId')) \</v>
+        <f>".withColumn('"&amp;A2&amp;"',F.when(for_exist_column(df_Raw, '$."&amp;B2&amp;"'), col('$."&amp;B2&amp;"'))) \"</f>
+        <v>.withColumn('LocalId',F.when(for_exist_column(df_Raw, '$.AlertMessages'), col('$.AlertMessages'))) \</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="0"/>
         <v>'StateProvinceId',</v>
-      </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q2:Q18" si="3">".withColumn('"&amp;A3&amp;"',F.when(for_exist_column(df_Raw, '$."&amp;B3&amp;"'), col('$."&amp;B3&amp;"')).otherwise(lit(''))) \"</f>
-        <v>.withColumn('StateProvinceId',F.when(for_exist_column(df_Raw, '$.StateProvinceId'), col('$.StateProvinceId')).otherwise(lit(''))) \</v>
       </c>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.3">
@@ -978,16 +4373,12 @@
         <v>NationalUniqueStudentIdentifier</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>.withColumn('NationalUniqueStudentIdentifier',col('NationalUniqueStudentIdentifier')) \</v>
+        <f t="shared" ref="C4:C67" si="2">".withColumn('"&amp;A3&amp;"',F.when(for_exist_column(df_Raw, '$."&amp;B3&amp;"'), col('$."&amp;B3&amp;"'))) \"</f>
+        <v>.withColumn('StateProvinceId',F.when(for_exist_column(df_Raw, '$.StateProvinceId'), col('$.StateProvinceId'))) \</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
         <v>'NationalUniqueStudentIdentifier',</v>
-      </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="3"/>
-        <v>.withColumn('NationalUniqueStudentIdentifier',F.when(for_exist_column(df_Raw, '$.NationalUniqueStudentIdentifier'), col('$.NationalUniqueStudentIdentifier')).otherwise(lit(''))) \</v>
       </c>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.3">
@@ -999,16 +4390,12 @@
         <v>AlertMessages</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>".withColumn('"&amp;A5&amp;"',col('"&amp;B5&amp;"')) \"</f>
-        <v>.withColumn('AlertMessages',col('AlertMessages')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('NationalUniqueStudentIdentifier',F.when(for_exist_column(df_Raw, '$.NationalUniqueStudentIdentifier'), col('$.NationalUniqueStudentIdentifier'))) \</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
         <v>'AlertMessages',</v>
-      </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="3"/>
-        <v>.withColumn('AlertMessages',F.when(for_exist_column(df_Raw, '$.AlertMessages'), col('$.AlertMessages')).otherwise(lit(''))) \</v>
       </c>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.3">
@@ -1019,16 +4406,12 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f t="shared" ref="C6:C10" si="4">".withColumn('"&amp;A6&amp;"',col('"&amp;B6&amp;"')) \"</f>
-        <v>.withColumn('MedicalAlertMessages',col('MedicalAlertMessages')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('AlertMessages',F.when(for_exist_column(df_Raw, '$.AlertMessages'), col('$.AlertMessages'))) \</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
         <v>'MedicalAlertMessages',</v>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="3"/>
-        <v>.withColumn('MedicalAlertMessages',F.when(for_exist_column(df_Raw, '$.MedicalAlertMessages'), col('$.MedicalAlertMessages')).otherwise(lit(''))) \</v>
       </c>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.3">
@@ -1039,16 +4422,12 @@
         <v>67</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>".withColumn('"&amp;A7&amp;"',get_json_object(to_json (struct (col ('*'))), '$."&amp;B7&amp;"')) \"</f>
-        <v>.withColumn('FirstName',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Name.GivenName')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('MedicalAlertMessages',F.when(for_exist_column(df_Raw, '$.MedicalAlertMessages'), col('$.MedicalAlertMessages'))) \</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
         <v>'FirstName',</v>
-      </c>
-      <c r="Q7" t="str">
-        <f t="shared" si="3"/>
-        <v>.withColumn('FirstName',F.when(for_exist_column(df_Raw, '$.PersonInfo.Name.GivenName'), col('$.PersonInfo.Name.GivenName')).otherwise(lit(''))) \</v>
       </c>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.3">
@@ -1059,16 +4438,12 @@
         <v>68</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f t="shared" ref="C8:C67" si="5">".withColumn('"&amp;A8&amp;"',get_json_object(to_json (struct (col ('*'))), '$."&amp;B8&amp;"')) \"</f>
-        <v>.withColumn('LastName',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Name.FamilyName')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('FirstName',F.when(for_exist_column(df_Raw, '$.PersonInfo.Name.GivenName'), col('$.PersonInfo.Name.GivenName'))) \</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
         <v>'LastName',</v>
-      </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="3"/>
-        <v>.withColumn('LastName',F.when(for_exist_column(df_Raw, '$.PersonInfo.Name.FamilyName'), col('$.PersonInfo.Name.FamilyName')).otherwise(lit(''))) \</v>
       </c>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.3">
@@ -1080,16 +4455,12 @@
         <v>MiddleName</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('MiddleName',get_json_object(to_json (struct (col ('*'))), '$.MiddleName')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('LastName',F.when(for_exist_column(df_Raw, '$.PersonInfo.Name.FamilyName'), col('$.PersonInfo.Name.FamilyName'))) \</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
         <v>'MiddleName',</v>
-      </c>
-      <c r="Q9" t="str">
-        <f t="shared" si="3"/>
-        <v>.withColumn('MiddleName',F.when(for_exist_column(df_Raw, '$.MiddleName'), col('$.MiddleName')).otherwise(lit(''))) \</v>
       </c>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.3">
@@ -1100,16 +4471,12 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('OtherNames',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.OtherNames')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('MiddleName',F.when(for_exist_column(df_Raw, '$.MiddleName'), col('$.MiddleName'))) \</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
         <v>'OtherNames',</v>
-      </c>
-      <c r="Q10" t="str">
-        <f t="shared" si="3"/>
-        <v>.withColumn('OtherNames',F.when(for_exist_column(df_Raw, '$.PersonInfo.OtherNames'), col('$.PersonInfo.OtherNames')).otherwise(lit(''))) \</v>
       </c>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.3">
@@ -1117,20 +4484,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" ref="B11:B13" si="6">A11</f>
+        <f t="shared" ref="B11:B13" si="3">A11</f>
         <v>ProjectedGraduationYear</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('ProjectedGraduationYear',get_json_object(to_json (struct (col ('*'))), '$.ProjectedGraduationYear')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('OtherNames',F.when(for_exist_column(df_Raw, '$.PersonInfo.OtherNames'), col('$.PersonInfo.OtherNames'))) \</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
         <v>'ProjectedGraduationYear',</v>
-      </c>
-      <c r="Q11" t="str">
-        <f t="shared" si="3"/>
-        <v>.withColumn('ProjectedGraduationYear',F.when(for_exist_column(df_Raw, '$.ProjectedGraduationYear'), col('$.ProjectedGraduationYear')).otherwise(lit(''))) \</v>
       </c>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.3">
@@ -1138,20 +4501,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>OnTimeGraduationYear</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('OnTimeGraduationYear',get_json_object(to_json (struct (col ('*'))), '$.OnTimeGraduationYear')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('ProjectedGraduationYear',F.when(for_exist_column(df_Raw, '$.ProjectedGraduationYear'), col('$.ProjectedGraduationYear'))) \</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
         <v>'OnTimeGraduationYear',</v>
-      </c>
-      <c r="Q12" t="str">
-        <f t="shared" si="3"/>
-        <v>.withColumn('OnTimeGraduationYear',F.when(for_exist_column(df_Raw, '$.OnTimeGraduationYear'), col('$.OnTimeGraduationYear')).otherwise(lit(''))) \</v>
       </c>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.3">
@@ -1159,20 +4518,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>GraduationDate</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('GraduationDate',get_json_object(to_json (struct (col ('*'))), '$.GraduationDate')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('OnTimeGraduationYear',F.when(for_exist_column(df_Raw, '$.OnTimeGraduationYear'), col('$.OnTimeGraduationYear'))) \</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
         <v>'GraduationDate',</v>
-      </c>
-      <c r="Q13" t="str">
-        <f t="shared" si="3"/>
-        <v>.withColumn('GraduationDate',F.when(for_exist_column(df_Raw, '$.GraduationDate'), col('$.GraduationDate')).otherwise(lit(''))) \</v>
       </c>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.3">
@@ -1183,16 +4538,12 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('MostRecent',get_json_object(to_json (struct (col ('*'))), '$.MostRecent')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('GraduationDate',F.when(for_exist_column(df_Raw, '$.GraduationDate'), col('$.GraduationDate'))) \</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
         <v>'MostRecent',</v>
-      </c>
-      <c r="Q14" t="str">
-        <f t="shared" si="3"/>
-        <v>.withColumn('MostRecent',F.when(for_exist_column(df_Raw, '$.MostRecent'), col('$.MostRecent')).otherwise(lit(''))) \</v>
       </c>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.3">
@@ -1200,20 +4551,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" ref="B15:B31" si="7">A15</f>
+        <f t="shared" ref="B15:B31" si="4">A15</f>
         <v>AcceptableUsePolicy</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('AcceptableUsePolicy',get_json_object(to_json (struct (col ('*'))), '$.AcceptableUsePolicy')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('MostRecent',F.when(for_exist_column(df_Raw, '$.MostRecent'), col('$.MostRecent'))) \</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="0"/>
         <v>'AcceptableUsePolicy',</v>
-      </c>
-      <c r="Q15" t="str">
-        <f t="shared" si="3"/>
-        <v>.withColumn('AcceptableUsePolicy',F.when(for_exist_column(df_Raw, '$.AcceptableUsePolicy'), col('$.AcceptableUsePolicy')).otherwise(lit(''))) \</v>
       </c>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.3">
@@ -1221,338 +4568,274 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>GiftedTalented</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('GiftedTalented',get_json_object(to_json (struct (col ('*'))), '$.GiftedTalented')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('AcceptableUsePolicy',F.when(for_exist_column(df_Raw, '$.AcceptableUsePolicy'), col('$.AcceptableUsePolicy'))) \</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="0"/>
         <v>'GiftedTalented',</v>
       </c>
-      <c r="Q16" t="str">
-        <f t="shared" si="3"/>
-        <v>.withColumn('GiftedTalented',F.when(for_exist_column(df_Raw, '$.GiftedTalented'), col('$.GiftedTalented')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>EconomicDisadvantage</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('EconomicDisadvantage',get_json_object(to_json (struct (col ('*'))), '$.EconomicDisadvantage')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('GiftedTalented',F.when(for_exist_column(df_Raw, '$.GiftedTalented'), col('$.GiftedTalented'))) \</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="0"/>
         <v>'EconomicDisadvantage',</v>
       </c>
-      <c r="Q17" t="str">
-        <f t="shared" si="3"/>
-        <v>.withColumn('EconomicDisadvantage',F.when(for_exist_column(df_Raw, '$.EconomicDisadvantage'), col('$.EconomicDisadvantage')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>ESL</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('ESL',get_json_object(to_json (struct (col ('*'))), '$.ESL')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('EconomicDisadvantage',F.when(for_exist_column(df_Raw, '$.EconomicDisadvantage'), col('$.EconomicDisadvantage'))) \</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="0"/>
         <v>'ESL',</v>
       </c>
-      <c r="Q18" t="str">
-        <f t="shared" si="3"/>
-        <v>.withColumn('ESL',F.when(for_exist_column(df_Raw, '$.ESL'), col('$.ESL')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>ESLDateAssessed</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('ESLDateAssessed',get_json_object(to_json (struct (col ('*'))), '$.ESLDateAssessed')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('ESL',F.when(for_exist_column(df_Raw, '$.ESL'), col('$.ESL'))) \</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="0"/>
         <v>'ESLDateAssessed',</v>
       </c>
-      <c r="Q19" t="str">
-        <f>".withColumn('"&amp;A19&amp;"',F.when(for_exist_column(df_Raw, '$."&amp;B19&amp;"'), col('$."&amp;B19&amp;"')).otherwise(lit(''))) \"</f>
-        <v>.withColumn('ESLDateAssessed',F.when(for_exist_column(df_Raw, '$.ESLDateAssessed'), col('$.ESLDateAssessed')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>YoungCarersRole</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('YoungCarersRole',get_json_object(to_json (struct (col ('*'))), '$.YoungCarersRole')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('ESLDateAssessed',F.when(for_exist_column(df_Raw, '$.ESLDateAssessed'), col('$.ESLDateAssessed'))) \</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="0"/>
         <v>'YoungCarersRole',</v>
       </c>
-      <c r="Q20" t="str">
-        <f t="shared" ref="Q20:Q67" si="8">".withColumn('"&amp;A20&amp;"',F.when(for_exist_column(df_Raw, '$."&amp;B20&amp;"'), col('$."&amp;B20&amp;"')).otherwise(lit(''))) \"</f>
-        <v>.withColumn('YoungCarersRole',F.when(for_exist_column(df_Raw, '$.YoungCarersRole'), col('$.YoungCarersRole')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Disability</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('Disability',get_json_object(to_json (struct (col ('*'))), '$.Disability')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('YoungCarersRole',F.when(for_exist_column(df_Raw, '$.YoungCarersRole'), col('$.YoungCarersRole'))) \</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="0"/>
         <v>'Disability',</v>
       </c>
-      <c r="Q21" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('Disability',F.when(for_exist_column(df_Raw, '$.Disability'), col('$.Disability')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>IntegrationAide</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('IntegrationAide',get_json_object(to_json (struct (col ('*'))), '$.IntegrationAide')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('Disability',F.when(for_exist_column(df_Raw, '$.Disability'), col('$.Disability'))) \</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="0"/>
         <v>'IntegrationAide',</v>
       </c>
-      <c r="Q22" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('IntegrationAide',F.when(for_exist_column(df_Raw, '$.IntegrationAide'), col('$.IntegrationAide')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>EducationSupport</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('EducationSupport',get_json_object(to_json (struct (col ('*'))), '$.EducationSupport')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('IntegrationAide',F.when(for_exist_column(df_Raw, '$.IntegrationAide'), col('$.IntegrationAide'))) \</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="0"/>
         <v>'EducationSupport',</v>
       </c>
-      <c r="Q23" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('EducationSupport',F.when(for_exist_column(df_Raw, '$.EducationSupport'), col('$.EducationSupport')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>HomeSchooledStudent</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('HomeSchooledStudent',get_json_object(to_json (struct (col ('*'))), '$.HomeSchooledStudent')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('EducationSupport',F.when(for_exist_column(df_Raw, '$.EducationSupport'), col('$.EducationSupport'))) \</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="0"/>
         <v>'HomeSchooledStudent',</v>
       </c>
-      <c r="Q24" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('HomeSchooledStudent',F.when(for_exist_column(df_Raw, '$.HomeSchooledStudent'), col('$.HomeSchooledStudent')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>IndependentStudent</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('IndependentStudent',get_json_object(to_json (struct (col ('*'))), '$.IndependentStudent')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('HomeSchooledStudent',F.when(for_exist_column(df_Raw, '$.HomeSchooledStudent'), col('$.HomeSchooledStudent'))) \</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="0"/>
         <v>'IndependentStudent',</v>
       </c>
-      <c r="Q25" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('IndependentStudent',F.when(for_exist_column(df_Raw, '$.IndependentStudent'), col('$.IndependentStudent')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sensitive</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('Sensitive',get_json_object(to_json (struct (col ('*'))), '$.Sensitive')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('IndependentStudent',F.when(for_exist_column(df_Raw, '$.IndependentStudent'), col('$.IndependentStudent'))) \</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="0"/>
         <v>'Sensitive',</v>
       </c>
-      <c r="Q26" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('Sensitive',F.when(for_exist_column(df_Raw, '$.Sensitive'), col('$.Sensitive')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>OfflineDelivery</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('OfflineDelivery',get_json_object(to_json (struct (col ('*'))), '$.OfflineDelivery')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('Sensitive',F.when(for_exist_column(df_Raw, '$.Sensitive'), col('$.Sensitive'))) \</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="0"/>
         <v>'OfflineDelivery',</v>
       </c>
-      <c r="Q27" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('OfflineDelivery',F.when(for_exist_column(df_Raw, '$.OfflineDelivery'), col('$.OfflineDelivery')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>ESLSupport</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('ESLSupport',get_json_object(to_json (struct (col ('*'))), '$.ESLSupport')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('OfflineDelivery',F.when(for_exist_column(df_Raw, '$.OfflineDelivery'), col('$.OfflineDelivery'))) \</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="0"/>
         <v>'ESLSupport',</v>
       </c>
-      <c r="Q28" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('ESLSupport',F.when(for_exist_column(df_Raw, '$.ESLSupport'), col('$.ESLSupport')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>PrePrimaryEducation</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('PrePrimaryEducation',get_json_object(to_json (struct (col ('*'))), '$.PrePrimaryEducation')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('ESLSupport',F.when(for_exist_column(df_Raw, '$.ESLSupport'), col('$.ESLSupport'))) \</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="0"/>
         <v>'PrePrimaryEducation',</v>
       </c>
-      <c r="Q29" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('PrePrimaryEducation',F.when(for_exist_column(df_Raw, '$.PrePrimaryEducation'), col('$.PrePrimaryEducation')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>PrePrimaryEducationHours</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('PrePrimaryEducationHours',get_json_object(to_json (struct (col ('*'))), '$.PrePrimaryEducationHours')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('PrePrimaryEducation',F.when(for_exist_column(df_Raw, '$.PrePrimaryEducation'), col('$.PrePrimaryEducation'))) \</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="0"/>
         <v>'PrePrimaryEducationHours',</v>
       </c>
-      <c r="Q30" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('PrePrimaryEducationHours',F.when(for_exist_column(df_Raw, '$.PrePrimaryEducationHours'), col('$.PrePrimaryEducationHours')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>FirstAUSchoolEnrollment</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('FirstAUSchoolEnrollment',get_json_object(to_json (struct (col ('*'))), '$.FirstAUSchoolEnrollment')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('PrePrimaryEducationHours',F.when(for_exist_column(df_Raw, '$.PrePrimaryEducationHours'), col('$.PrePrimaryEducationHours'))) \</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="0"/>
         <v>'FirstAUSchoolEnrollment',</v>
       </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('FirstAUSchoolEnrollment',F.when(for_exist_column(df_Raw, '$.FirstAUSchoolEnrollment'), col('$.FirstAUSchoolEnrollment')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1560,19 +4843,15 @@
         <v>70</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('EmailList',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.EmailList')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('FirstAUSchoolEnrollment',F.when(for_exist_column(df_Raw, '$.FirstAUSchoolEnrollment'), col('$.FirstAUSchoolEnrollment'))) \</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="0"/>
         <v>'EmailList',</v>
       </c>
-      <c r="Q32" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('EmailList',F.when(for_exist_column(df_Raw, '$.PersonInfo.EmailList'), col('$.PersonInfo.EmailList')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1580,19 +4859,15 @@
         <v>71</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('PhoneNumberList',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.PhoneNumberList')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('EmailList',F.when(for_exist_column(df_Raw, '$.PersonInfo.EmailList'), col('$.PersonInfo.EmailList'))) \</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="0"/>
         <v>'PhoneNumberList',</v>
       </c>
-      <c r="Q33" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('PhoneNumberList',F.when(for_exist_column(df_Raw, '$.PersonInfo.PhoneNumberList'), col('$.PersonInfo.PhoneNumberList')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1600,19 +4875,15 @@
         <v>72</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('AddressList',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.AddressList')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('PhoneNumberList',F.when(for_exist_column(df_Raw, '$.PersonInfo.PhoneNumberList'), col('$.PersonInfo.PhoneNumberList'))) \</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="0"/>
         <v>'AddressList',</v>
       </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('AddressList',F.when(for_exist_column(df_Raw, '$.PersonInfo.AddressList'), col('$.PersonInfo.AddressList')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1620,19 +4891,15 @@
         <v>73</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('IndigenousStatus',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.IndigenousStatus')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('AddressList',F.when(for_exist_column(df_Raw, '$.PersonInfo.AddressList'), col('$.PersonInfo.AddressList'))) \</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="0"/>
         <v>'IndigenousStatus',</v>
       </c>
-      <c r="Q35" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('IndigenousStatus',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.IndigenousStatus'), col('$.PersonInfo.Demographics.IndigenousStatus')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1640,19 +4907,15 @@
         <v>74</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('Sex',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.Sex')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('IndigenousStatus',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.IndigenousStatus'), col('$.PersonInfo.Demographics.IndigenousStatus'))) \</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" si="0"/>
         <v>'Sex',</v>
       </c>
-      <c r="Q36" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('Sex',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.Sex'), col('$.PersonInfo.Demographics.Sex')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1660,19 +4923,15 @@
         <v>75</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('BirthDate',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.BirthDate')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('Sex',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.Sex'), col('$.PersonInfo.Demographics.Sex'))) \</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="0"/>
         <v>'BirthDate',</v>
       </c>
-      <c r="Q37" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('BirthDate',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.BirthDate'), col('$.PersonInfo.Demographics.BirthDate')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1680,19 +4939,15 @@
         <v>76</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('DateOfDeath',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.DateOfDeath')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('BirthDate',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.BirthDate'), col('$.PersonInfo.Demographics.BirthDate'))) \</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" si="0"/>
         <v>'DateOfDeath',</v>
       </c>
-      <c r="Q38" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('DateOfDeath',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.DateOfDeath'), col('$.PersonInfo.Demographics.DateOfDeath')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1700,19 +4955,15 @@
         <v>77</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('Deceased',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.Deceased')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('DateOfDeath',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.DateOfDeath'), col('$.PersonInfo.Demographics.DateOfDeath'))) \</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" si="0"/>
         <v>'Deceased',</v>
       </c>
-      <c r="Q39" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('Deceased',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.Deceased'), col('$.PersonInfo.Demographics.Deceased')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1720,19 +4971,15 @@
         <v>78</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('BirthDateVerification',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.BirthDateVerification')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('Deceased',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.Deceased'), col('$.PersonInfo.Demographics.Deceased'))) \</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" si="0"/>
         <v>'BirthDateVerification',</v>
       </c>
-      <c r="Q40" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('BirthDateVerification',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.BirthDateVerification'), col('$.PersonInfo.Demographics.BirthDateVerification')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1740,19 +4987,15 @@
         <v>79</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('PlaceOfBirth',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.PlaceOfBirth')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('BirthDateVerification',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.BirthDateVerification'), col('$.PersonInfo.Demographics.BirthDateVerification'))) \</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" si="0"/>
         <v>'PlaceOfBirth',</v>
       </c>
-      <c r="Q41" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('PlaceOfBirth',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.PlaceOfBirth'), col('$.PersonInfo.Demographics.PlaceOfBirth')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1760,19 +5003,15 @@
         <v>80</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('StateOfBirth',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.StateOfBirth')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('PlaceOfBirth',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.PlaceOfBirth'), col('$.PersonInfo.Demographics.PlaceOfBirth'))) \</v>
       </c>
       <c r="M42" t="str">
         <f t="shared" si="0"/>
         <v>'StateOfBirth',</v>
       </c>
-      <c r="Q42" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('StateOfBirth',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.StateOfBirth'), col('$.PersonInfo.Demographics.StateOfBirth')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1780,19 +5019,15 @@
         <v>81</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('CountryOfBirth ',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.CountryOfBirth')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('StateOfBirth',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.StateOfBirth'), col('$.PersonInfo.Demographics.StateOfBirth'))) \</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="0"/>
         <v>'CountryOfBirth ',</v>
       </c>
-      <c r="Q43" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('CountryOfBirth ',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.CountryOfBirth'), col('$.PersonInfo.Demographics.CountryOfBirth')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1800,19 +5035,15 @@
         <v>82</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('CountryOfCitizenship ',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.CountriesOfCitizenship')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('CountryOfBirth ',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.CountryOfBirth'), col('$.PersonInfo.Demographics.CountryOfBirth'))) \</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="0"/>
         <v>'CountryOfCitizenship ',</v>
       </c>
-      <c r="Q44" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('CountryOfCitizenship ',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.CountriesOfCitizenship'), col('$.PersonInfo.Demographics.CountriesOfCitizenship')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1820,19 +5051,15 @@
         <v>83</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('CountryOfResidency',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.CountriesOfResidency')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('CountryOfCitizenship ',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.CountriesOfCitizenship'), col('$.PersonInfo.Demographics.CountriesOfCitizenship'))) \</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" si="0"/>
         <v>'CountryOfResidency',</v>
       </c>
-      <c r="Q45" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('CountryOfResidency',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.CountriesOfResidency'), col('$.PersonInfo.Demographics.CountriesOfResidency')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1840,19 +5067,15 @@
         <v>84</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('CountryArrivalDate',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.CountryArrivalDate')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('CountryOfResidency',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.CountriesOfResidency'), col('$.PersonInfo.Demographics.CountriesOfResidency'))) \</v>
       </c>
       <c r="M46" t="str">
         <f t="shared" si="0"/>
         <v>'CountryArrivalDate',</v>
       </c>
-      <c r="Q46" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('CountryArrivalDate',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.CountryArrivalDate'), col('$.PersonInfo.Demographics.CountryArrivalDate')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1860,19 +5083,15 @@
         <v>85</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('AustralianCitizenshipStatus',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.AustralianCitizenshipStatus')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('CountryArrivalDate',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.CountryArrivalDate'), col('$.PersonInfo.Demographics.CountryArrivalDate'))) \</v>
       </c>
       <c r="M47" t="str">
         <f t="shared" si="0"/>
         <v>'AustralianCitizenshipStatus',</v>
       </c>
-      <c r="Q47" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('AustralianCitizenshipStatus',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.AustralianCitizenshipStatus'), col('$.PersonInfo.Demographics.AustralianCitizenshipStatus')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1880,19 +5099,15 @@
         <v>86</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('EnglishProficiency',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.EnglishProficiency.Code')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('AustralianCitizenshipStatus',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.AustralianCitizenshipStatus'), col('$.PersonInfo.Demographics.AustralianCitizenshipStatus'))) \</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" si="0"/>
         <v>'EnglishProficiency',</v>
       </c>
-      <c r="Q48" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('EnglishProficiency',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.EnglishProficiency.Code'), col('$.PersonInfo.Demographics.EnglishProficiency.Code')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1900,19 +5115,15 @@
         <v>87</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('LanguageList',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.LanguageList')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('EnglishProficiency',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.EnglishProficiency.Code'), col('$.PersonInfo.Demographics.EnglishProficiency.Code'))) \</v>
       </c>
       <c r="M49" t="str">
         <f t="shared" si="0"/>
         <v>'LanguageList',</v>
       </c>
-      <c r="Q49" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('LanguageList',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.LanguageList'), col('$.PersonInfo.Demographics.LanguageList')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1920,19 +5131,15 @@
         <v>88</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('DwellingArrangement',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.DwellingArrangement.Code')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('LanguageList',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.LanguageList'), col('$.PersonInfo.Demographics.LanguageList'))) \</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" si="0"/>
         <v>'DwellingArrangement',</v>
       </c>
-      <c r="Q50" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('DwellingArrangement',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.DwellingArrangement.Code'), col('$.PersonInfo.Demographics.DwellingArrangement.Code')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1940,19 +5147,15 @@
         <v>89</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('Religion',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.Religion.Code')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('DwellingArrangement',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.DwellingArrangement.Code'), col('$.PersonInfo.Demographics.DwellingArrangement.Code'))) \</v>
       </c>
       <c r="M51" t="str">
         <f t="shared" si="0"/>
         <v>'Religion',</v>
       </c>
-      <c r="Q51" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('Religion',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.Religion.Code'), col('$.PersonInfo.Demographics.Religion.Code')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1960,19 +5163,15 @@
         <v>90</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('ReligiousEventList',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.ReligiousEventList')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('Religion',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.Religion.Code'), col('$.PersonInfo.Demographics.Religion.Code'))) \</v>
       </c>
       <c r="M52" t="str">
         <f t="shared" si="0"/>
         <v>'ReligiousEventList',</v>
       </c>
-      <c r="Q52" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('ReligiousEventList',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.ReligiousEventList'), col('$.PersonInfo.Demographics.ReligiousEventList')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1980,19 +5179,15 @@
         <v>91</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('ReligiousRegion',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.ReligiousRegion')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('ReligiousEventList',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.ReligiousEventList'), col('$.PersonInfo.Demographics.ReligiousEventList'))) \</v>
       </c>
       <c r="M53" t="str">
         <f t="shared" si="0"/>
         <v>'ReligiousRegion',</v>
       </c>
-      <c r="Q53" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('ReligiousRegion',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.ReligiousRegion'), col('$.PersonInfo.Demographics.ReligiousRegion')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2000,19 +5195,15 @@
         <v>92</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('PermanentResident',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.PermanentResident')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('ReligiousRegion',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.ReligiousRegion'), col('$.PersonInfo.Demographics.ReligiousRegion'))) \</v>
       </c>
       <c r="M54" t="str">
         <f t="shared" si="0"/>
         <v>'PermanentResident',</v>
       </c>
-      <c r="Q54" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('PermanentResident',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.PermanentResident'), col('$.PersonInfo.Demographics.PermanentResident')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2020,19 +5211,15 @@
         <v>93</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('VisaSubClass',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.VisaSubClass')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('PermanentResident',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.PermanentResident'), col('$.PersonInfo.Demographics.PermanentResident'))) \</v>
       </c>
       <c r="M55" t="str">
         <f t="shared" si="0"/>
         <v>'VisaSubClass',</v>
       </c>
-      <c r="Q55" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('VisaSubClass',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.VisaSubClass'), col('$.PersonInfo.Demographics.VisaSubClass')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2040,19 +5227,15 @@
         <v>94</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('VisaStatisticalCode',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.VisaStatisticalCode')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('VisaSubClass',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.VisaSubClass'), col('$.PersonInfo.Demographics.VisaSubClass'))) \</v>
       </c>
       <c r="M56" t="str">
         <f t="shared" si="0"/>
         <v>'VisaStatisticalCode',</v>
       </c>
-      <c r="Q56" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('VisaStatisticalCode',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.VisaStatisticalCode'), col('$.PersonInfo.Demographics.VisaStatisticalCode')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2060,19 +5243,15 @@
         <v>95</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('VisaSubClassList',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.VisaSubClassList')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('VisaStatisticalCode',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.VisaStatisticalCode'), col('$.PersonInfo.Demographics.VisaStatisticalCode'))) \</v>
       </c>
       <c r="M57" t="str">
         <f t="shared" si="0"/>
         <v>'VisaSubClassList',</v>
       </c>
-      <c r="Q57" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('VisaSubClassList',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.VisaSubClassList'), col('$.PersonInfo.Demographics.VisaSubClassList')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2080,205 +5259,165 @@
         <v>96</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('PassportList',get_json_object(to_json (struct (col ('*'))), '$.PersonInfo.Demographics.Passport')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('VisaSubClassList',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.VisaSubClassList'), col('$.PersonInfo.Demographics.VisaSubClassList'))) \</v>
       </c>
       <c r="M58" t="str">
         <f t="shared" si="0"/>
         <v>'PassportList',</v>
       </c>
-      <c r="Q58" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('PassportList',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.Passport'), col('$.PersonInfo.Demographics.Passport')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" ref="B59:B67" si="9">A59</f>
+        <f t="shared" ref="B59:B67" si="5">A59</f>
         <v>LBOTE</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('LBOTE',get_json_object(to_json (struct (col ('*'))), '$.LBOTE')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('PassportList',F.when(for_exist_column(df_Raw, '$.PersonInfo.Demographics.Passport'), col('$.PersonInfo.Demographics.Passport'))) \</v>
       </c>
       <c r="M59" t="str">
         <f t="shared" si="0"/>
         <v>'LBOTE',</v>
       </c>
-      <c r="Q59" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('LBOTE',F.when(for_exist_column(df_Raw, '$.LBOTE'), col('$.LBOTE')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>InterpreterRequired</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('InterpreterRequired',get_json_object(to_json (struct (col ('*'))), '$.InterpreterRequired')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('LBOTE',F.when(for_exist_column(df_Raw, '$.LBOTE'), col('$.LBOTE'))) \</v>
       </c>
       <c r="M60" t="str">
         <f t="shared" si="0"/>
         <v>'InterpreterRequired',</v>
       </c>
-      <c r="Q60" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('InterpreterRequired',F.when(for_exist_column(df_Raw, '$.InterpreterRequired'), col('$.InterpreterRequired')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>ImmunisationCertificateStatus</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('ImmunisationCertificateStatus',get_json_object(to_json (struct (col ('*'))), '$.ImmunisationCertificateStatus')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('InterpreterRequired',F.when(for_exist_column(df_Raw, '$.InterpreterRequired'), col('$.InterpreterRequired'))) \</v>
       </c>
       <c r="M61" t="str">
         <f t="shared" si="0"/>
         <v>'ImmunisationCertificateStatus',</v>
       </c>
-      <c r="Q61" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('ImmunisationCertificateStatus',F.when(for_exist_column(df_Raw, '$.ImmunisationCertificateStatus'), col('$.ImmunisationCertificateStatus')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>CulturalBackground</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('CulturalBackground',get_json_object(to_json (struct (col ('*'))), '$.CulturalBackground')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('ImmunisationCertificateStatus',F.when(for_exist_column(df_Raw, '$.ImmunisationCertificateStatus'), col('$.ImmunisationCertificateStatus'))) \</v>
       </c>
       <c r="M62" t="str">
         <f t="shared" si="0"/>
         <v>'CulturalBackground',</v>
       </c>
-      <c r="Q62" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('CulturalBackground',F.when(for_exist_column(df_Raw, '$.CulturalBackground'), col('$.CulturalBackground')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>MaritalStatus</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('MaritalStatus',get_json_object(to_json (struct (col ('*'))), '$.MaritalStatus')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('CulturalBackground',F.when(for_exist_column(df_Raw, '$.CulturalBackground'), col('$.CulturalBackground'))) \</v>
       </c>
       <c r="M63" t="str">
         <f t="shared" si="0"/>
         <v>'MaritalStatus',</v>
       </c>
-      <c r="Q63" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('MaritalStatus',F.when(for_exist_column(df_Raw, '$.MaritalStatus'), col('$.MaritalStatus')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>MedicareNumber</v>
       </c>
       <c r="C64" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('MedicareNumber',get_json_object(to_json (struct (col ('*'))), '$.MedicareNumber')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('MaritalStatus',F.when(for_exist_column(df_Raw, '$.MaritalStatus'), col('$.MaritalStatus'))) \</v>
       </c>
       <c r="M64" t="str">
         <f t="shared" si="0"/>
         <v>'MedicareNumber',</v>
       </c>
-      <c r="Q64" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('MedicareNumber',F.when(for_exist_column(df_Raw, '$.MedicareNumber'), col('$.MedicareNumber')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>MedicarePositionNumber</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('MedicarePositionNumber',get_json_object(to_json (struct (col ('*'))), '$.MedicarePositionNumber')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('MedicareNumber',F.when(for_exist_column(df_Raw, '$.MedicareNumber'), col('$.MedicareNumber'))) \</v>
       </c>
       <c r="M65" t="str">
         <f t="shared" si="0"/>
         <v>'MedicarePositionNumber',</v>
       </c>
-      <c r="Q65" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('MedicarePositionNumber',F.when(for_exist_column(df_Raw, '$.MedicarePositionNumber'), col('$.MedicarePositionNumber')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>MedicareCardHolderName</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('MedicareCardHolderName',get_json_object(to_json (struct (col ('*'))), '$.MedicareCardHolderName')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('MedicarePositionNumber',F.when(for_exist_column(df_Raw, '$.MedicarePositionNumber'), col('$.MedicarePositionNumber'))) \</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" ref="M66:M67" si="10">"'"&amp;A66&amp;"',"</f>
+        <f t="shared" ref="M66:M67" si="6">"'"&amp;A66&amp;"',"</f>
         <v>'MedicareCardHolderName',</v>
       </c>
-      <c r="Q66" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('MedicareCardHolderName',F.when(for_exist_column(df_Raw, '$.MedicareCardHolderName'), col('$.MedicareCardHolderName')).otherwise(lit(''))) \</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>PrivateHealthInsurance</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.withColumn('PrivateHealthInsurance',get_json_object(to_json (struct (col ('*'))), '$.PrivateHealthInsurance')) \</v>
+        <f t="shared" si="2"/>
+        <v>.withColumn('MedicareCardHolderName',F.when(for_exist_column(df_Raw, '$.MedicareCardHolderName'), col('$.MedicareCardHolderName'))) \</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'PrivateHealthInsurance',</v>
-      </c>
-      <c r="Q67" t="str">
-        <f t="shared" si="8"/>
-        <v>.withColumn('PrivateHealthInsurance',F.when(for_exist_column(df_Raw, '$.PrivateHealthInsurance'), col('$.PrivateHealthInsurance')).otherwise(lit(''))) \</v>
       </c>
     </row>
   </sheetData>
